--- a/src/main/resources/reports/common.xlsx
+++ b/src/main/resources/reports/common.xlsx
@@ -306,7 +306,7 @@
     <t xml:space="preserve">$RESULT_IKAS$</t>
   </si>
   <si>
-    <t xml:space="preserve">Холостой ход</t>
+    <t xml:space="preserve">Проверка частоты вращения</t>
   </si>
   <si>
     <t xml:space="preserve">Uв, В</t>
@@ -713,7 +713,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,8 +928,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A40" colorId="64" zoomScale="120" zoomScaleNormal="145" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A58" colorId="64" zoomScale="120" zoomScaleNormal="145" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
